--- a/stats_df_sm.xlsx
+++ b/stats_df_sm.xlsx
@@ -1,20 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brigitamilanic/Documents/thesis/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABBC0CAC-82D0-CC43-9599-1E92A102CA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="740" windowWidth="28560" windowHeight="16980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="184">
   <si>
     <t>N</t>
   </si>
@@ -74,13 +96,545 @@
   </si>
   <si>
     <t>other actual</t>
+  </si>
+  <si>
+    <t>Which lottery would you choose?</t>
+  </si>
+  <si>
+    <t>Win 4,000 EUR with an 80% probability</t>
+  </si>
+  <si>
+    <t>Win 3.000 EUR with an 100% probability</t>
+  </si>
+  <si>
+    <t>Stran 3</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Trdo opozorilo</t>
+  </si>
+  <si>
+    <t>Win 6.000 EUR with an 45% probability</t>
+  </si>
+  <si>
+    <t>Win 3.000 EUR with an 90% probability</t>
+  </si>
+  <si>
+    <t>Stran 4</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Win 6,000 EUR with an 1% probability</t>
+  </si>
+  <si>
+    <t>Win 3,000 EUR with an 2% probability</t>
+  </si>
+  <si>
+    <t>Stran 5</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Win 4,000 EUR with an 20 % probability</t>
+  </si>
+  <si>
+    <t>Win 3,000 EUR with an  25% probability</t>
+  </si>
+  <si>
+    <t>Imagine that you are a supervisor at TilTec. Due to recently raised environmental protection standards, the company’s current pollution control system no longer meets the minimum requirement. The company may be subject to a $300,000 punitive fine if no improvements are made soon. You can choose between two options, A and B, for purchasing new equipment that will comply with the newly published standards. The equipment in each option has the same useful life. Under both options A and B, costs related to purchases, operations, and other miscellaneous expenses, such as maintenance, are also identical.</t>
+  </si>
+  <si>
+    <t>If the equipment under option A is purchased, TilTec will, for certain, be subject to a $200,000 punitive fine.</t>
+  </si>
+  <si>
+    <t>If the equipment under option B is purchased, there is a two-thirds probability that TilTec will be subject to a $300,000 punitive fine and a one-third probability that TilTec will be subject to $0 punitive fine.</t>
+  </si>
+  <si>
+    <t>Nova kategorija</t>
+  </si>
+  <si>
+    <r>
+      <t>ENDIF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF1E88E5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF1E88E5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> Skupina (2) = 2</t>
+    </r>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>If the equipment under option A is purchased, TilTec will, for certain, be able to save $100,000 out of the $300,000 total punitive fine</t>
+  </si>
+  <si>
+    <t>If the equipment under option B is purchased, there is a one-third probability that TilTec will save all of the $300,000 punitive fine and a two-thirds probability that TilTec will save $0 of the punitive fine. </t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Within each section, the effects on profit or loss for two investment alternatives are listed. As the executive director responsible for making these decisions for your department, choose the option you would prefer to invest in for each investment set. Consider each investment set independently.</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>60% chance to lose $375,000.</t>
+  </si>
+  <si>
+    <t>40% chance to lose $230,000.</t>
+  </si>
+  <si>
+    <t>Sure loss of $317,000.</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>60% chance of a $290,000 profit.</t>
+  </si>
+  <si>
+    <t>40% chance of a $130,000 profit.</t>
+  </si>
+  <si>
+    <t>Sure profit of $226,00.</t>
+  </si>
+  <si>
+    <t>60% chance of a $520,000 profit.</t>
+  </si>
+  <si>
+    <t>40% chance of no profit.</t>
+  </si>
+  <si>
+    <t>Sure profit of $312,000.</t>
+  </si>
+  <si>
+    <t>Q7b</t>
+  </si>
+  <si>
+    <t>60% chance to lose $390,000.</t>
+  </si>
+  <si>
+    <t>40% chance to lose nothing.</t>
+  </si>
+  <si>
+    <t>Sure loss of $234,000.</t>
+  </si>
+  <si>
+    <t>T-test for differences in Flanker Task Performance between High and Low Social Media Usage: T-test for CII_ACC: t-stat=0.3676638720164163, p-value=0.7140290085067524 T-test for CII_RT: t-stat=0.8357164745646202, p-value=0.4055574888894973</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> T-test for CII_ACC: t-stat=0.3676638720164163, p-value=0.7140290085067524 T-test for CII_RT: t-stat=0.8357164745646202, p-value=0.4055574888894973</t>
+  </si>
+  <si>
+    <t>t value</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>t = 0.37</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>CII_ACC</t>
+  </si>
+  <si>
+    <t>CII_RT</t>
+  </si>
+  <si>
+    <t>DEPENDENT VARIABLE</t>
+  </si>
+  <si>
+    <t>Coefficients:</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>Signif. codes:  0 ‘***’ 0.001 ‘**’ 0.01 ‘*’ 0.05 ‘.’ 0.1 ‘ ’ 1</t>
+  </si>
+  <si>
+    <t>Residual standard error: 0.07108 on 87 degrees of freedom</t>
+  </si>
+  <si>
+    <t>Multiple R-squared:  0.01784,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjusted R-squared:  -0.01603 </t>
+  </si>
+  <si>
+    <t>F-statistic: 0.5268 on 3 and 87 DF,  p-value: 0.665</t>
+  </si>
+  <si>
+    <t>Estimate</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Pr(&gt;|t|)</t>
+  </si>
+  <si>
+    <t>(Intercept)</t>
+  </si>
+  <si>
+    <t>1.23e-07</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>`time spend</t>
+  </si>
+  <si>
+    <t>0.286</t>
+  </si>
+  <si>
+    <t>AGE</t>
+  </si>
+  <si>
+    <t>0.265</t>
+  </si>
+  <si>
+    <t>0.792</t>
+  </si>
+  <si>
+    <t>SEX</t>
+  </si>
+  <si>
+    <t>0.622</t>
+  </si>
+  <si>
+    <t>0.535</t>
+  </si>
+  <si>
+    <t>&lt;2e-16</t>
+  </si>
+  <si>
+    <t>0.483</t>
+  </si>
+  <si>
+    <t>0.630</t>
+  </si>
+  <si>
+    <t>0.341</t>
+  </si>
+  <si>
+    <t>0.734</t>
+  </si>
+  <si>
+    <t>0.271</t>
+  </si>
+  <si>
+    <t>`Instagram actual`</t>
+  </si>
+  <si>
+    <t>0.314</t>
+  </si>
+  <si>
+    <t>0.754</t>
+  </si>
+  <si>
+    <t>`TikTok actual`</t>
+  </si>
+  <si>
+    <t>0.463</t>
+  </si>
+  <si>
+    <t>0.645</t>
+  </si>
+  <si>
+    <t>0.298</t>
+  </si>
+  <si>
+    <t>0.767</t>
+  </si>
+  <si>
+    <t>0.919</t>
+  </si>
+  <si>
+    <t>0.361</t>
+  </si>
+  <si>
+    <t>4.22e-08</t>
+  </si>
+  <si>
+    <t>0.328</t>
+  </si>
+  <si>
+    <t>0.744</t>
+  </si>
+  <si>
+    <t>-0.480</t>
+  </si>
+  <si>
+    <t>0.633</t>
+  </si>
+  <si>
+    <t>0.185</t>
+  </si>
+  <si>
+    <t>0.854</t>
+  </si>
+  <si>
+    <t>0.643</t>
+  </si>
+  <si>
+    <t>0.522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 CII_ACC CII_RT Instagram actual TikTok actual AGE    SEX   </t>
+  </si>
+  <si>
+    <t>CII_ACC                  0.1118 0.4607           0.3960        0.7666 0.2669</t>
+  </si>
+  <si>
+    <t>CII_RT           0.1118         0.7923           0.7991        0.8556 0.5311</t>
+  </si>
+  <si>
+    <t>Instagram actual 0.4607  0.7923                  0.0000        0.9244 0.0899</t>
+  </si>
+  <si>
+    <t>TikTok actual    0.3960  0.7991 0.0000                         0.9637 0.0643</t>
+  </si>
+  <si>
+    <t>AGE              0.7666  0.8556 0.9244           0.9637               0.9338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEX              0.2669  0.5311 0.0899           0.0643        0.9338       </t>
+  </si>
+  <si>
+    <t>&gt; cor_matrix &lt;- cor(variables, use = "complete.obs", method = "pearson")</t>
+  </si>
+  <si>
+    <t>&gt; cor_matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    CII_ACC      CII_RT Instagram actual TikTok actual          AGE          SEX</t>
+  </si>
+  <si>
+    <t>CII_ACC          1.00000000  0.16783627       0.07829904   0.090048421  0.031539240  0.117605766</t>
+  </si>
+  <si>
+    <t>CII_RT           0.16783627  1.00000000       0.02798028  -0.027050028  0.019346267  0.066505137</t>
+  </si>
+  <si>
+    <t>Instagram actual 0.07829904  0.02798028       1.00000000   0.417217106  0.010086557  0.178809565</t>
+  </si>
+  <si>
+    <t>TikTok actual    0.09004842 -0.02705003       0.41721711   1.000000000  0.004837118  0.194758814</t>
+  </si>
+  <si>
+    <t>AGE              0.03153924  0.01934627       0.01008656   0.004837118  1.000000000 -0.008835767</t>
+  </si>
+  <si>
+    <t>SEX              0.11760577  0.06650514       0.17880956   0.194758814 -0.008835767  1.000000000</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>statistic</t>
+  </si>
+  <si>
+    <t>p.value</t>
+  </si>
+  <si>
+    <t>conf.low</t>
+  </si>
+  <si>
+    <t>conf.high</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>-0.16</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>-0.05</t>
+  </si>
+  <si>
+    <t>-0.17</t>
+  </si>
+  <si>
+    <t>-1.49</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>-0.32</t>
+  </si>
+  <si>
+    <t>t-statistic</t>
+  </si>
+  <si>
+    <t>Correlation between Social Media Usage and Lotteries</t>
+  </si>
+  <si>
+    <t>Q2:</t>
+  </si>
+  <si>
+    <t>Q3:</t>
+  </si>
+  <si>
+    <t>Q4:</t>
+  </si>
+  <si>
+    <t>Q5:</t>
+  </si>
+  <si>
+    <t>&lt;chr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt;</t>
+  </si>
+  <si>
+    <t>Q9_2</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>-0.23</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>-1.75</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>-0.53</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>-0.26</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>-0.06</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>Q7a</t>
+  </si>
+  <si>
+    <t>-0.3</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>-0.34</t>
+  </si>
+  <si>
+    <t>-1.2</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>-0.42</t>
+  </si>
+  <si>
+    <t>0.11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +649,62 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF1E88E5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFA9A9A9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1E88E5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF1E88E5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,27 +739,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -187,7 +816,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -221,6 +850,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -255,9 +885,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -430,14 +1061,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,7 +1096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -492,7 +1125,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -521,7 +1154,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -550,7 +1183,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -558,7 +1191,7 @@
         <v>314</v>
       </c>
       <c r="C5">
-        <v>32.02</v>
+        <v>32.020000000000003</v>
       </c>
       <c r="D5">
         <v>2.06</v>
@@ -579,7 +1212,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -608,7 +1241,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -616,7 +1249,7 @@
         <v>73</v>
       </c>
       <c r="C7">
-        <v>19.51</v>
+        <v>19.510000000000002</v>
       </c>
       <c r="D7">
         <v>3.03</v>
@@ -637,7 +1270,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -648,13 +1281,13 @@
         <v>48.93</v>
       </c>
       <c r="D8">
-        <v>8.630000000000001</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="E8">
         <v>20.5</v>
       </c>
       <c r="F8">
-        <v>78.15000000000001</v>
+        <v>78.150000000000006</v>
       </c>
       <c r="G8">
         <v>6106.69</v>
@@ -666,7 +1299,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -677,7 +1310,7 @@
         <v>81.19</v>
       </c>
       <c r="D9">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E9">
         <v>50.5</v>
@@ -695,7 +1328,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -712,10 +1345,10 @@
         <v>30</v>
       </c>
       <c r="F10">
-        <v>70.23999999999999</v>
+        <v>70.239999999999995</v>
       </c>
       <c r="G10">
-        <v>4933.19</v>
+        <v>4933.1899999999996</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -724,7 +1357,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -753,7 +1386,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -782,7 +1415,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -790,7 +1423,7 @@
         <v>118</v>
       </c>
       <c r="C13">
-        <v>74.34999999999999</v>
+        <v>74.349999999999994</v>
       </c>
       <c r="D13">
         <v>6.97</v>
@@ -809,6 +1442,1103 @@
       </c>
       <c r="I13">
         <v>349</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0E67D8-FF4C-9348-8361-F04FE049B10D}">
+  <dimension ref="A2:A81"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="M55" sqref="M55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A37" r:id="rId1" tooltip="Nova kategorija" display="https://1ka.arnes.si/admin/survey/index.php?anketa=128048" xr:uid="{7A9679A8-47A6-F448-B81D-5C5F5FA67453}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25518D3F-C7A1-7846-9A9E-EF2B41741795}">
+  <dimension ref="A1:N69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="M48" sqref="I43:M48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="9">
+        <v>822.9</v>
+      </c>
+      <c r="C13" s="9">
+        <v>142.80000000000001</v>
+      </c>
+      <c r="E13" s="10">
+        <v>5763</v>
+      </c>
+      <c r="F13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="9">
+        <v>6.7650000000000002E-2</v>
+      </c>
+      <c r="C14" s="9">
+        <v>6.2990000000000004E-2</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1074</v>
+      </c>
+      <c r="F14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="9">
+        <v>1.677</v>
+      </c>
+      <c r="C15" s="9">
+        <v>6.3319999999999999</v>
+      </c>
+      <c r="E15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="9">
+        <v>9.532</v>
+      </c>
+      <c r="C16" s="9">
+        <v>15.32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="9">
+        <v>929.1</v>
+      </c>
+      <c r="C28" s="9">
+        <v>90.16</v>
+      </c>
+      <c r="D28" s="10">
+        <v>10305</v>
+      </c>
+      <c r="E28" t="s">
+        <v>95</v>
+      </c>
+      <c r="L28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="9">
+        <v>1.9230000000000001E-2</v>
+      </c>
+      <c r="C29" s="9">
+        <v>3.9780000000000003E-2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="9">
+        <v>1.363</v>
+      </c>
+      <c r="C30" s="9">
+        <v>3.9980000000000002</v>
+      </c>
+      <c r="D30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="9">
+        <v>10.71</v>
+      </c>
+      <c r="C31" s="9">
+        <v>9.6720000000000006</v>
+      </c>
+      <c r="D31" s="10">
+        <v>1107</v>
+      </c>
+      <c r="E31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" t="s">
+        <v>83</v>
+      </c>
+      <c r="I36" t="s">
+        <v>136</v>
+      </c>
+      <c r="J36" t="s">
+        <v>152</v>
+      </c>
+      <c r="K36" t="s">
+        <v>138</v>
+      </c>
+      <c r="L36" t="s">
+        <v>139</v>
+      </c>
+      <c r="M36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="9">
+        <v>937.3</v>
+      </c>
+      <c r="C37" s="9">
+        <v>88.81</v>
+      </c>
+      <c r="D37" s="10">
+        <v>10554</v>
+      </c>
+      <c r="E37" t="s">
+        <v>95</v>
+      </c>
+      <c r="F37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>141</v>
+      </c>
+      <c r="J37" t="s">
+        <v>142</v>
+      </c>
+      <c r="K37" t="s">
+        <v>143</v>
+      </c>
+      <c r="L37" t="s">
+        <v>144</v>
+      </c>
+      <c r="M37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="9">
+        <v>1.7440000000000001E-2</v>
+      </c>
+      <c r="C38" s="9">
+        <v>5.5489999999999998E-2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" t="s">
+        <v>103</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" t="s">
+        <v>142</v>
+      </c>
+      <c r="K38" t="s">
+        <v>143</v>
+      </c>
+      <c r="L38" t="s">
+        <v>144</v>
+      </c>
+      <c r="M38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="9">
+        <v>1.8020000000000001E-2</v>
+      </c>
+      <c r="C39" s="9">
+        <v>3.8960000000000002E-2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" t="s">
+        <v>106</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" t="s">
+        <v>147</v>
+      </c>
+      <c r="K39" t="s">
+        <v>143</v>
+      </c>
+      <c r="L39" t="s">
+        <v>148</v>
+      </c>
+      <c r="M39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="9">
+        <v>1.1930000000000001</v>
+      </c>
+      <c r="C40" s="9">
+        <v>4.0049999999999999</v>
+      </c>
+      <c r="D40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" t="s">
+        <v>108</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
+      <c r="I40" t="s">
+        <v>33</v>
+      </c>
+      <c r="J40" t="s">
+        <v>149</v>
+      </c>
+      <c r="K40" t="s">
+        <v>150</v>
+      </c>
+      <c r="L40" t="s">
+        <v>151</v>
+      </c>
+      <c r="M40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="9">
+        <v>9.1530000000000005</v>
+      </c>
+      <c r="C41" s="9">
+        <v>9.9619999999999997</v>
+      </c>
+      <c r="D41" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" t="s">
+        <v>110</v>
+      </c>
+      <c r="I41" t="s">
+        <v>136</v>
+      </c>
+      <c r="J41" t="s">
+        <v>137</v>
+      </c>
+      <c r="K41" t="s">
+        <v>138</v>
+      </c>
+      <c r="L41" t="s">
+        <v>139</v>
+      </c>
+      <c r="M41" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I42" t="s">
+        <v>158</v>
+      </c>
+      <c r="J42" t="s">
+        <v>159</v>
+      </c>
+      <c r="K42" t="s">
+        <v>159</v>
+      </c>
+      <c r="L42" t="s">
+        <v>159</v>
+      </c>
+      <c r="M42" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>160</v>
+      </c>
+      <c r="J43" t="s">
+        <v>161</v>
+      </c>
+      <c r="K43" t="s">
+        <v>162</v>
+      </c>
+      <c r="L43" t="s">
+        <v>163</v>
+      </c>
+      <c r="M43" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44" t="s">
+        <v>42</v>
+      </c>
+      <c r="J44" t="s">
+        <v>165</v>
+      </c>
+      <c r="K44" t="s">
+        <v>166</v>
+      </c>
+      <c r="L44" t="s">
+        <v>167</v>
+      </c>
+      <c r="M44" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" t="s">
+        <v>83</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45" t="s">
+        <v>47</v>
+      </c>
+      <c r="J45" t="s">
+        <v>169</v>
+      </c>
+      <c r="K45" t="s">
+        <v>170</v>
+      </c>
+      <c r="L45" t="s">
+        <v>171</v>
+      </c>
+      <c r="M45" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="9">
+        <v>852</v>
+      </c>
+      <c r="C46" s="9">
+        <v>141.6</v>
+      </c>
+      <c r="D46" s="10">
+        <v>6017</v>
+      </c>
+      <c r="E46" t="s">
+        <v>111</v>
+      </c>
+      <c r="F46" t="s">
+        <v>86</v>
+      </c>
+      <c r="H46">
+        <v>4</v>
+      </c>
+      <c r="I46" t="s">
+        <v>51</v>
+      </c>
+      <c r="J46" t="s">
+        <v>173</v>
+      </c>
+      <c r="K46" t="s">
+        <v>174</v>
+      </c>
+      <c r="L46" t="s">
+        <v>171</v>
+      </c>
+      <c r="M46" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="9">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C47" s="9">
+        <v>8.8459999999999997E-2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" t="s">
+        <v>113</v>
+      </c>
+      <c r="H47">
+        <v>5</v>
+      </c>
+      <c r="I47" t="s">
+        <v>176</v>
+      </c>
+      <c r="J47" t="s">
+        <v>177</v>
+      </c>
+      <c r="K47" t="s">
+        <v>178</v>
+      </c>
+      <c r="L47" t="s">
+        <v>179</v>
+      </c>
+      <c r="M47" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" s="9">
+        <v>-2.9790000000000001E-2</v>
+      </c>
+      <c r="C48" s="9">
+        <v>6.2109999999999999E-2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>114</v>
+      </c>
+      <c r="E48" t="s">
+        <v>115</v>
+      </c>
+      <c r="H48">
+        <v>6</v>
+      </c>
+      <c r="I48" t="s">
+        <v>58</v>
+      </c>
+      <c r="J48" t="s">
+        <v>180</v>
+      </c>
+      <c r="K48" t="s">
+        <v>181</v>
+      </c>
+      <c r="L48" t="s">
+        <v>182</v>
+      </c>
+      <c r="M48" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="9">
+        <v>1.18</v>
+      </c>
+      <c r="C49" s="9">
+        <v>6.3849999999999998</v>
+      </c>
+      <c r="D49" t="s">
+        <v>116</v>
+      </c>
+      <c r="E49" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" s="9">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="C50" s="9">
+        <v>15.88</v>
+      </c>
+      <c r="D50" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" t="s">
+        <v>119</v>
+      </c>
+      <c r="M50" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M51" t="s">
+        <v>154</v>
+      </c>
+      <c r="N51">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M52" t="s">
+        <v>155</v>
+      </c>
+      <c r="N52">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M53" t="s">
+        <v>156</v>
+      </c>
+      <c r="N53">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>120</v>
+      </c>
+      <c r="M54" t="s">
+        <v>157</v>
+      </c>
+      <c r="N54">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
